--- a/biology/Botanique/Saxifraga_cochlearis/Saxifraga_cochlearis.xlsx
+++ b/biology/Botanique/Saxifraga_cochlearis/Saxifraga_cochlearis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga cochlearis, la Saxifrage cochléaire, saxifrage en forme de coquille ou saxifrage à feuilles en cuillère, est une espèce de plante herbacée vivace du genre Saxifraga et de la famille des Saxifragacées, endémique des Alpes maritimes et ligures.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 5 à 40 cm, aux feuilles disposées en rosette, rigides, épaisses, étroites puis s'élargissant en forme de cuillère. La face inférieure porte sur son bord des pores entourés de dépôts calcaires blancs. Les fleurs à 5 pétales blancs piquetés de rouge se situent au sommet de longues tiges velues, glanduleuses, ramifiées.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers calcaires. Dans le Mercantour, jusqu'à une altitude de 1 900 m.
 </t>
@@ -573,7 +589,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, c'est une espèce réglementée de portée régionale : liste des espèces végétales protégées en région Provence-Alpes-Côte-d'Azur : Article 1.
 </t>
@@ -604,7 +622,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cultivar est signalé par BioLib : cultivar Saxifraga cochlearis 'Hostii'
 Sur les autres projets Wikimedia :
